--- a/FPH_Linear/178-FPH-Relatório-Reg-D-XINGO       .xlsx
+++ b/FPH_Linear/178-FPH-Relatório-Reg-D-XINGO       .xlsx
@@ -951,7 +951,7 @@
         <v>-0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-0.0190076944455726</v>
       </c>
       <c r="F2">
         <v>57.78111541173384</v>
@@ -960,7 +960,7 @@
         <v>0.3622965816029967</v>
       </c>
       <c r="H2">
-        <v>1.497522999462652</v>
+        <v>1.159858051658</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>-0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.02233900264020942</v>
       </c>
       <c r="F3">
         <v>44.84897700015151</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>-0.03544488666574432</v>
       </c>
       <c r="F4">
         <v>27.88996307110924</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01390054387858745</v>
+        <v>-0.1001047701381772</v>
       </c>
       <c r="F5">
         <v>0</v>
